--- a/i18n/excel_from_translation/no.nibio.vips.xlsx
+++ b/i18n/excel_from_translation/no.nibio.vips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rskgroup.sharepoint.com/sites/IPMDecisions274/Shared Documents/WP2/Translation files/Release-2022-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="11_92268004077681A24DC8D6AF4B737B9B35F4FBA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54FCE001-C9BF-42EA-8077-471E5B748903}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="11_92268004077681A24DC8D6AF4B737B9B35F4FBA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE80147-39F5-44EE-BE04-A40CD5D96FB2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="953">
   <si>
     <t>KEY</t>
   </si>
@@ -2822,7 +2822,7 @@
     <t>Nærstad model</t>
   </si>
   <si>
-    <t>Nærstad-Modell</t>
+    <t>Naerstad-Modell</t>
   </si>
   <si>
     <t>Nærstad-model</t>
@@ -3621,7 +3621,7 @@
     <t>Negative prognosis</t>
   </si>
   <si>
-    <t>Negative-Prognose</t>
+    <t>Negativprognose</t>
   </si>
   <si>
     <t>Negativna napoved</t>
@@ -3805,7 +3805,30 @@
     <t>This model calculates accumulated blight risk from crop emergence. ‘Risk Status’ shows the accumulated risk reached on each day (i.e. it does not show if the weather was high or low blight risk on that particular day). ’Infection risk’ shows the increasing accumulated risk.     This risk model guides the timing of the first fungicide application. When accumulated risk is less than 120 (green), the risk of blight is low. Between 120 and 150 (orange), there is a risk of blight if other risk factors (e.g. sources of blight inoculum or cultivar susceptibility) are high. Above 150 (red), the risk is likely to be high. Above 200 the model becomes inactive as the first spray should already have been applied in most circumstances. The ‘Risk Status’ chart shows the accumulated risk reached on each day (i.e. it does not show if the weather was high or low blight risk on that particular day). The ’Infection risk’ chart shows the increasing accumulated risk.</t>
   </si>
   <si>
-    <t>Dieses Modell berechnet das kumulierte Krautfäule-Risiko ab dem Auflaufen der Pflanzen. Der "Risikostatus" zeigt das kumulierte Risiko, das an jedem Tag erreicht wurde (d. h. es wird nicht angezeigt, ob das Wetter an diesem Tag ein hohes oder niedriges Risiko für die Kraut- und Knollenfäule aufwies). Das 'Infektionsrisiko' zeigt das zunehmende kumulierte Risiko an.     Anhand dieses Risikomodells wird der Zeitpunkt der ersten Fungizidanwendung bestimmt. Wenn das kumulierte Risiko weniger als 120 beträgt (grün), ist das Risiko der Kraut- und Knollenfäule gering. Zwischen 120 und 150 (orange) besteht ein Risiko für Kraut- und Knollenfäule, wenn andere Risikofaktoren (z. B. Quellen von Kraut- und Knollenfäuleinokulum oder Anfälligkeit der Sorte) hoch sind. Über 150 (rot) ist das Risiko wahrscheinlich hoch. Ab 200 wird das Modell inaktiv, da die erste Spritzung in den meisten Fällen bereits erfolgt sein sollte. Das Diagramm "Risikostatus" zeigt das kumulierte Risiko, das an jedem Tag erreicht wurde (d. h. es zeigt nicht an, ob das Wetter an diesem Tag ein hohes oder ein niedriges Feuerbrandrisiko aufwies). Das Diagramm "Infektionsrisiko" zeigt das zunehmende kumulierte Risiko.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Dieses Modell berechnet das kumulierte Krautfäule-Risiko ab dem Auflaufen der Pflanzen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Die "Risiko-Einstufung" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>zeigt das kumulierte Risiko, das an jedem Tag erreicht wurde (d. h. es wird nicht angezeigt, ob das Wetter an diesem Tag ein hohes oder niedriges Risiko für die Kraut- und Knollenfäule aufwies). Das 'Infektionsrisiko' zeigt das zunehmende kumulierte Risiko an.     Anhand dieses Risikomodells wird der Zeitpunkt der ersten Fungizidanwendung bestimmt. Wenn das kumulierte Risiko weniger als 120 beträgt (grün), ist das Risiko der Kraut- und Knollenfäule gering. Zwischen 120 und 150 (orange) besteht ein Risiko für Kraut- und Knollenfäule, wenn andere Risikofaktoren (z. B. Quellen von Kraut- und Knollenfäuleinokulum oder Anfälligkeit der Sorte) hoch sind. Über 150 (rot) ist das Risiko wahrscheinlich hoch. Ab 200 wird das Modell inaktiv, da die erste Spritzung in den meisten Fällen bereits erfolgt sein sollte. Das Diagramm "Risiko-Einstufung" zeigt das kumulierte Risiko, das an jedem Tag erreicht wurde (d. h. es zeigt nicht an, ob das Wetter an diesem Tag ein hohes oder ein niedriges Feuerbrandrisiko aufwies). Das Diagramm "Infektionsrisiko" zeigt das zunehmende kumulierte Risiko.</t>
+    </r>
   </si>
   <si>
     <t>Ta model izračunava nakopičeno tveganje za okužbo s krompirjevo plesnijo od vznika krompirja. "Ocena tveganja" prikazuje akumulirano tveganje, doseženo na vsak dan (tj. ne prikazuje, ali je bilo vreme na določen dan visoko ali nizko tveganje za krompirjevo plesen). "Tveganje za okužbo" prikazuje naraščajoče akumulirano tveganje. Ta model tveganja določa čas prvega nanosa fungicida. Ko je kumulativno tveganje manjše od 120 (zelena barva), je tveganje za okužbo s krompirjevo plesnijo majhno. Med 120 in 150 (rumena barva) obstaja tveganje za pojav pegavosti, če so drugi dejavniki tveganja (npr. viri inokuluma krompirjeve plesni ali dovzetnost sorte) visoki. Nad 150 (rdeča barva) je tveganje verjetno veliko. Nad 200 model postane neaktiven, saj bi moralo biti prvo škropljenje v večini primerov že opravljeno. Graf "Stanje tveganja" prikazuje kumulativno tveganje, doseženo na vsak dan (tj. ne prikazuje, ali je bilo glede na vreme na določen dan visoko ali nizko tveganje za krompirevo plesen). Graf "Tveganje za okužbe" prikazuje naraščajoče akumulirano tveganje.</t>
@@ -3882,6 +3905,32 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Dieses Modell berechnet das kumulierte Krautfäule-Risiko ab dem Auflaufen der Pflanzen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Die "Risiko-Einstufung"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> zeigt das kumulierte Risiko, das an jedem Tag erreicht wurde (d. h. es wird nicht angezeigt, ob das Wetter an diesem Tag ein hohes oder niedriges Risiko für die Kraut- und Knollenfäule aufwies). Das 'Infektionsrisiko' zeigt das zunehmende kumulierte Risiko an.     Anhand dieses Risikomodells wird der Zeitpunkt der ersten Fungizidanwendung bestimmt. Wenn das kumulierte Risiko weniger als 120 beträgt (grün), ist das Risiko der Kraut- und Knollenfäule gering. Zwischen 120 und 150 (orange) besteht ein Risiko für Kraut- und Knollenfäule, wenn andere Risikofaktoren (z. B. Quellen von Kraut- und Knollenfäuleinokulum oder Anfälligkeit der Sorte) hoch sind. Über 150 (rot) ist das Risiko wahrscheinlich hoch. Ab 200 wird das Modell inaktiv, da die erste Spritzung in den meisten Fällen bereits erfolgt sein sollte. Das Diagramm "Risiko-Einstufung" zeigt das kumulierte Risiko, das an jedem Tag erreicht wurde (d. h. es zeigt nicht an, ob das Wetter an diesem Tag ein hohes oder ein niedriges Feuerbrandrisiko aufwies). Das Diagramm "Infektionsrisiko" zeigt das zunehmende kumulierte Risiko.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Dit model berekent het geaccumuleerde risico van de ziekte vanaf de opkomst van het gewas. De "risicostatus" toont het geaccumuleerde risico dat op elke dag is bereikt (d.w.z. het toont niet of het weer op die bepaalde dag een hoog of een laag risico op phytophthora was). Infectierisico" toont het toenemende geaccumuleerde risic</t>
     </r>
     <r>
@@ -4029,7 +4078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4103,6 +4152,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4157,7 +4211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4202,6 +4256,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4663,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -6032,15 +6089,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="49.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="99.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" style="2" customWidth="1"/>
@@ -7213,15 +7270,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="67.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="78.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="2" customWidth="1"/>
@@ -8235,15 +8292,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="51" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
@@ -8505,7 +8562,7 @@
       <c r="B8" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>723</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -9328,15 +9385,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P2698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="69.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="104.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="42.28515625" style="3" customWidth="1"/>
@@ -9599,7 +9656,7 @@
       <c r="B8" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>847</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -9801,7 +9858,7 @@
       <c r="B15" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="16" t="s">
         <v>908</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -9865,14 +9922,14 @@
       <c r="B17" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>908</v>
+      <c r="C17" s="16" t="s">
+        <v>926</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>909</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>911</v>
@@ -9884,15 +9941,15 @@
         <v>913</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="138.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>917</v>
@@ -9904,7 +9961,7 @@
         <v>919</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>901</v>
@@ -9916,7 +9973,7 @@
         <v>922</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>924</v>
@@ -9924,19 +9981,19 @@
     </row>
     <row r="19" spans="1:16" ht="194.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>908</v>
+      <c r="C19" s="16" t="s">
+        <v>926</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>909</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>911</v>
@@ -9948,15 +10005,15 @@
         <v>913</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="126.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>917</v>
@@ -9968,7 +10025,7 @@
         <v>919</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>901</v>
@@ -9980,7 +10037,7 @@
         <v>922</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>924</v>
@@ -9988,19 +10045,19 @@
     </row>
     <row r="21" spans="1:16" ht="196.5" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>908</v>
+      <c r="C21" s="16" t="s">
+        <v>926</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>909</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>911</v>
@@ -10012,15 +10069,15 @@
         <v>913</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="140.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>917</v>
@@ -10032,7 +10089,7 @@
         <v>919</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>901</v>
@@ -10052,19 +10109,19 @@
     </row>
     <row r="23" spans="1:16" ht="207.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>908</v>
+      <c r="C23" s="16" t="s">
+        <v>926</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>909</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>911</v>
@@ -10076,15 +10133,15 @@
         <v>913</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="140.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>917</v>
@@ -10096,7 +10153,7 @@
         <v>919</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>921</v>
@@ -10105,7 +10162,7 @@
         <v>922</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>924</v>
@@ -10113,7 +10170,7 @@
     </row>
     <row r="25" spans="1:16" ht="86.45">
       <c r="A25" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D25" s="4"/>
       <c r="G25" s="6"/>
@@ -20865,6 +20922,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21124,23 +21190,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162B975C-CD74-4F73-B075-12080308F68E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68D27F60-5B1D-4759-856E-0569E2F7CF4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E959F4-B480-4CB3-B95F-19CD7025ACF6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E959F4-B480-4CB3-B95F-19CD7025ACF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68D27F60-5B1D-4759-856E-0569E2F7CF4D}"/>
 </file>
--- a/i18n/excel_from_translation/no.nibio.vips.xlsx
+++ b/i18n/excel_from_translation/no.nibio.vips.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rskgroup.sharepoint.com/sites/IPMDecisions274/Shared Documents/WP2/Translation files/Release-2022-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="11_92268004077681A24DC8D6AF4B737B9B35F4FBA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE80147-39F5-44EE-BE04-A40CD5D96FB2}"/>
+  <xr:revisionPtr revIDLastSave="519" documentId="11_92268004077681A24DC8D6AF4B737B9B35F4FBA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A10A66-7F0A-41E7-8231-25E9B3DEB42F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="952">
   <si>
     <t>KEY</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>VIPS</t>
-  </si>
-  <si>
-    <t>si</t>
   </si>
   <si>
     <t>fi</t>
@@ -4647,8 +4644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4720,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="14.45"/>
@@ -4740,7 +4737,7 @@
     <col min="17" max="16384" width="31.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -4769,1180 +4766,1180 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="57.6">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="57.6">
       <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="57.6">
       <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="43.15">
       <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="L6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="43.15">
       <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="43.15">
       <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="28.9">
       <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="28.9">
       <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="L10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="28.9">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="L11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="57.6">
       <c r="A12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="L12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="43.15">
       <c r="A13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="L13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="57.6">
       <c r="A14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="L14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="43.15">
       <c r="A15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="L15" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="43.15">
       <c r="A16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="L16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="43.15">
       <c r="A17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="L17" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="43.15">
       <c r="A18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="43.15">
       <c r="A19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="L19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="57.6">
       <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="F20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="43.15">
       <c r="A21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="L21" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="43.15">
       <c r="A22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="43.15">
       <c r="A23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="L23" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="43.15">
       <c r="A24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="L24" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="43.15">
       <c r="A25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="L25" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="43.15">
       <c r="A26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="L26" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="115.15">
       <c r="A27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="L27" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="115.15">
       <c r="A28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="L28" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="172.9">
       <c r="A29" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="L29" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="230.45">
       <c r="A30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="L30" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="43.15">
       <c r="A31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="L31" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="187.15">
       <c r="A32" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="L32" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="86.45">
       <c r="A33" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="L33" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="43.15">
       <c r="A34" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="L34" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -6089,8 +6086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -6111,7 +6108,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6122,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -6140,1075 +6137,1075 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="251.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="152.25">
       <c r="A3" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="167.25">
       <c r="A4" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="244.9">
       <c r="A5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="144">
       <c r="A6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="L6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="115.15">
       <c r="A7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="115.15">
       <c r="A8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="100.9">
       <c r="A9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="72">
       <c r="A10" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="L10" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="86.45">
       <c r="A11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="72">
       <c r="A12" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="L12" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="187.15">
       <c r="A13" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="L13" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="100.9">
       <c r="A14" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="L14" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="187.15">
       <c r="A15" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="L15" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="100.9">
       <c r="A16" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="L16" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="216">
       <c r="A17" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="L17" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="115.15">
       <c r="A18" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="L18" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="144">
       <c r="A19" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="L19" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="100.9">
       <c r="A20" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="L20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="115.15">
       <c r="A21" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="L21" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="158.44999999999999">
       <c r="A22" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="L22" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="115.15">
       <c r="A23" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="F23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="L23" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="302.45">
       <c r="A24" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="L24" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="331.15">
       <c r="A25" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="L25" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="273.60000000000002">
       <c r="A26" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="L26" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="409.6">
       <c r="A27" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="L27" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="230.45">
       <c r="A28" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="L28" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="409.6">
       <c r="A29" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="L29" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="M29" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="288">
       <c r="A30" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="L30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="76.5">
       <c r="A31" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="L31" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1"/>
@@ -7270,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -7292,7 +7289,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7303,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -7321,621 +7318,621 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="366" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="36" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="36" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="36" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="36" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="36" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="36" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="36" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="36" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="D10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="36" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="L11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="36" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40.5" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="F13" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="L13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="150" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="51.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D15" s="4"/>
       <c r="G15" s="6"/>
       <c r="L15" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="150" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>682</v>
-      </c>
       <c r="M16" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="150" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D17" s="4"/>
       <c r="G17" s="6"/>
       <c r="L17" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="150" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>685</v>
-      </c>
       <c r="F18" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="150" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D19" s="4"/>
       <c r="G19" s="6"/>
       <c r="L19" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="150" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>670</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="158.44999999999999">
       <c r="A21" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D21" s="4"/>
       <c r="G21" s="6"/>
       <c r="L21" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="409.6">
       <c r="A22" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="F22" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="158.44999999999999">
       <c r="A23" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D23" s="4"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:13" ht="86.45">
       <c r="A24" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -8292,8 +8289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -8313,7 +8310,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8324,7 +8321,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -8342,692 +8339,692 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="187.15">
       <c r="A3" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="187.15">
       <c r="A4" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="187.15">
       <c r="A5" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G5" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="158.44999999999999">
       <c r="A6" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="144">
       <c r="A7" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="91.5">
       <c r="A8" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="115.15">
       <c r="A9" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="100.9">
       <c r="A10" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D10" s="4"/>
       <c r="G10" s="6"/>
       <c r="L10" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="129.6">
       <c r="A11" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="115.15">
       <c r="A12" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="259.14999999999998">
       <c r="A13" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="144">
       <c r="A14" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="259.14999999999998">
       <c r="A15" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="L15" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="144">
       <c r="A16" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="L16" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6">
       <c r="A17" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="L17" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="158.44999999999999">
       <c r="A18" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D18" s="4"/>
       <c r="G18" s="6"/>
       <c r="L18" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="409.6">
       <c r="A19" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="L19" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>801</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="158.44999999999999">
       <c r="A20" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D20" s="4"/>
       <c r="G20" s="6"/>
       <c r="L20" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6">
       <c r="A21" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="F21" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="H21" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>801</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="158.44999999999999">
       <c r="A22" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D22" s="4"/>
       <c r="G22" s="6"/>
       <c r="L22" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="409.6">
       <c r="A23" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>807</v>
-      </c>
       <c r="F23" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="H23" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>801</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="158.44999999999999">
       <c r="A24" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D24" s="4"/>
       <c r="G24" s="6"/>
       <c r="L24" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="409.6">
       <c r="A25" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>810</v>
-      </c>
       <c r="F25" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="H25" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>801</v>
-      </c>
       <c r="M25" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="158.44999999999999">
       <c r="A26" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D26" s="4"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="86.45">
       <c r="A27" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D27" s="4"/>
       <c r="G27" s="6"/>
@@ -9385,8 +9382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P2698"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -9407,7 +9404,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9418,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -9436,741 +9433,741 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="21.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G5" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="23.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="100.9">
       <c r="A10" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D10" s="4"/>
       <c r="G10" s="6"/>
       <c r="L10" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="158.44999999999999">
       <c r="A11" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.25" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="185.25" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="L15" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="144" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="L16" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="188.25" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>925</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="138.75" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>932</v>
-      </c>
       <c r="M18" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="194.25" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>926</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="126.75" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>939</v>
-      </c>
       <c r="M20" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="196.5" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>926</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="140.25" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>945</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="L22" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="207.75" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>926</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="140.25" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>951</v>
-      </c>
       <c r="G24" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>922</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="86.45">
       <c r="A25" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D25" s="4"/>
       <c r="G25" s="6"/>
@@ -20909,28 +20906,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21190,8 +21165,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162B975C-CD74-4F73-B075-12080308F68E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68D27F60-5B1D-4759-856E-0569E2F7CF4D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21199,5 +21196,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68D27F60-5B1D-4759-856E-0569E2F7CF4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162B975C-CD74-4F73-B075-12080308F68E}"/>
 </file>